--- a/ILCA STANDARD.xlsx
+++ b/ILCA STANDARD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Desktop\SIY ILCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloos\Desktop\SIY_ILCA\SIY_ILCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625BBF7-11B6-484B-B29F-D19A8869CC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E805E64-0F39-47EF-9469-74082DB05FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" ILCA 7 STANDARD" sheetId="8" r:id="rId1"/>
@@ -775,16 +775,16 @@
       <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="35.42578125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="35.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -825,7 +825,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -846,7 +846,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -867,7 +867,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -888,7 +888,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -909,7 +909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -930,7 +930,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -951,7 +951,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -972,7 +972,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -993,7 +993,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
